--- a/examples/john+sally.xlsx
+++ b/examples/john+sally.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\Owl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\Owl\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029CA9D6-11EB-47B1-B196-8747492AFF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F866013E-4C6F-4C60-91CE-D7180D5FD743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="12690" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="John" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB57614-FCF1-4139-AA0D-31AF55A08D66}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +474,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B2" s="1">
         <v>100000</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -504,7 +504,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -517,7 +517,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -530,7 +530,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -543,7 +543,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -556,7 +556,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -569,7 +569,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -582,7 +582,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -595,7 +595,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -608,7 +608,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -621,7 +621,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -634,7 +634,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -647,7 +647,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -660,7 +660,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -673,7 +673,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -686,7 +686,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -699,7 +699,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -712,7 +712,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -725,7 +725,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -738,7 +738,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -751,7 +751,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -764,7 +764,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -777,7 +777,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -790,7 +790,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -803,7 +803,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -816,7 +816,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -829,7 +829,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -842,7 +842,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -855,7 +855,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -868,19 +868,6 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2054</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
         <v>2055</v>
       </c>
     </row>
@@ -892,10 +879,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DE7EE4-731B-47FB-9A4E-667972814602}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,7 +929,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -955,7 +942,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -968,7 +955,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -981,7 +968,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -994,7 +981,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1007,7 +994,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1020,7 +1007,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1033,7 +1020,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1046,7 +1033,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1059,7 +1046,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1072,7 +1059,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1085,7 +1072,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1098,7 +1085,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1111,7 +1098,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1124,7 +1111,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1137,7 +1124,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1150,7 +1137,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1163,7 +1150,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1176,7 +1163,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1189,7 +1176,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1202,7 +1189,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1215,7 +1202,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1228,7 +1215,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1241,7 +1228,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1254,7 +1241,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1267,7 +1254,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1280,7 +1267,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1293,7 +1280,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1306,7 +1293,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1319,7 +1306,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1332,7 +1319,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1345,7 +1332,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1358,24 +1345,11 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2056</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+        <v>2057</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
         <v>2058</v>
       </c>
     </row>

--- a/examples/john+sally.xlsx
+++ b/examples/john+sally.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\Owl\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F866013E-4C6F-4C60-91CE-D7180D5FD743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F50302-8CF1-4F4C-B66C-1E443AB89D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="10690" yWindow="7090" windowWidth="19420" windowHeight="11500" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="John" sheetId="1" r:id="rId1"/>
@@ -42,28 +42,28 @@
     <t>year</t>
   </si>
   <si>
-    <t>Roth X</t>
-  </si>
-  <si>
-    <t>ctrb taxable</t>
-  </si>
-  <si>
-    <t>ctrb 401k</t>
-  </si>
-  <si>
-    <t>ctrb Roth 401k</t>
-  </si>
-  <si>
-    <t>ctrb IRA</t>
-  </si>
-  <si>
-    <t>ctrb Roth IRA</t>
-  </si>
-  <si>
     <t>anticipated wages</t>
   </si>
   <si>
     <t>big-ticket items</t>
+  </si>
+  <si>
+    <t>Roth conv</t>
+  </si>
+  <si>
+    <t>taxable ctrb</t>
+  </si>
+  <si>
+    <t>401k ctrb</t>
+  </si>
+  <si>
+    <t>Roth 401k ctrb</t>
+  </si>
+  <si>
+    <t>IRA ctrb</t>
+  </si>
+  <si>
+    <t>Roth IRA ctrb</t>
   </si>
 </sst>
 </file>
@@ -73,13 +73,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,9 +109,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,7 +431,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,32 +452,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -882,7 +890,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,32 +907,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">

--- a/examples/john+sally.xlsx
+++ b/examples/john+sally.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\Owl\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F50302-8CF1-4F4C-B66C-1E443AB89D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BA563B-1D5D-43C5-969F-73A241667237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10690" yWindow="7090" windowWidth="19420" windowHeight="11500" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="-21240" yWindow="15780" windowWidth="15045" windowHeight="11700" activeTab="1" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="John" sheetId="1" r:id="rId1"/>
@@ -428,10 +428,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB57614-FCF1-4139-AA0D-31AF55A08D66}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,15 +482,11 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2025</v>
-      </c>
-      <c r="B2" s="1">
-        <v>100000</v>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1">
-        <v>15000</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -499,7 +495,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -512,7 +508,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2027</v>
+        <v>2022</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -525,7 +521,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2028</v>
+        <v>2023</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -538,7 +534,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2029</v>
+        <v>2024</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -551,11 +547,15 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2030</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>2025</v>
+      </c>
+      <c r="B7" s="1">
+        <v>100000</v>
+      </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>15000</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -564,7 +564,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2031</v>
+        <v>2026</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -577,7 +577,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2032</v>
+        <v>2027</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -590,7 +590,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2033</v>
+        <v>2028</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -603,7 +603,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2034</v>
+        <v>2029</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -616,7 +616,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -629,7 +629,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2036</v>
+        <v>2031</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -642,7 +642,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2037</v>
+        <v>2032</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -655,7 +655,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2038</v>
+        <v>2033</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -668,7 +668,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2039</v>
+        <v>2034</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -681,7 +681,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -694,7 +694,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2041</v>
+        <v>2036</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -707,7 +707,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2042</v>
+        <v>2037</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -720,7 +720,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2043</v>
+        <v>2038</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -733,7 +733,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2044</v>
+        <v>2039</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -746,7 +746,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -759,7 +759,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -772,7 +772,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2048</v>
+        <v>2043</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -798,7 +798,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2049</v>
+        <v>2044</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -811,7 +811,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -824,7 +824,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2051</v>
+        <v>2046</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -837,7 +837,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2052</v>
+        <v>2047</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -850,7 +850,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2053</v>
+        <v>2048</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -863,7 +863,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2054</v>
+        <v>2049</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -876,6 +876,71 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>2050</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2051</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2052</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2053</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2054</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>2055</v>
       </c>
     </row>
@@ -887,10 +952,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DE7EE4-731B-47FB-9A4E-667972814602}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,7 +1002,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -950,7 +1015,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -963,7 +1028,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2027</v>
+        <v>2022</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -976,7 +1041,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2028</v>
+        <v>2023</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -989,7 +1054,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2029</v>
+        <v>2024</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1002,7 +1067,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1015,7 +1080,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2031</v>
+        <v>2026</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1028,7 +1093,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2032</v>
+        <v>2027</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1041,7 +1106,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2033</v>
+        <v>2028</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1054,7 +1119,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2034</v>
+        <v>2029</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1067,7 +1132,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1080,7 +1145,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2036</v>
+        <v>2031</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1093,7 +1158,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2037</v>
+        <v>2032</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1106,7 +1171,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2038</v>
+        <v>2033</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1119,7 +1184,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2039</v>
+        <v>2034</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1132,7 +1197,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1145,7 +1210,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2041</v>
+        <v>2036</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1158,7 +1223,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2042</v>
+        <v>2037</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1171,7 +1236,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2043</v>
+        <v>2038</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1184,7 +1249,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2044</v>
+        <v>2039</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1197,7 +1262,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1210,7 +1275,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1223,7 +1288,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1236,7 +1301,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2048</v>
+        <v>2043</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1249,7 +1314,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2049</v>
+        <v>2044</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1262,7 +1327,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1275,7 +1340,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2051</v>
+        <v>2046</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1288,7 +1353,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2052</v>
+        <v>2047</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1301,7 +1366,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2053</v>
+        <v>2048</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1314,7 +1379,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2054</v>
+        <v>2049</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1327,7 +1392,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2055</v>
+        <v>2050</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1340,7 +1405,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2056</v>
+        <v>2051</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1353,11 +1418,76 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2057</v>
-      </c>
+        <v>2052</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>2053</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2054</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2055</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2056</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>2058</v>
       </c>
     </row>

--- a/examples/john+sally.xlsx
+++ b/examples/john+sally.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\Owl\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BA563B-1D5D-43C5-969F-73A241667237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B8BF7C-F761-4BD9-840A-FD61B634D53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21240" yWindow="15780" windowWidth="15045" windowHeight="11700" activeTab="1" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="John" sheetId="1" r:id="rId1"/>
     <sheet name="Sally" sheetId="2" r:id="rId2"/>
+    <sheet name="Debts" sheetId="3" r:id="rId3"/>
+    <sheet name="Fixed Assets" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>year</t>
   </si>
@@ -64,6 +66,33 @@
   </si>
   <si>
     <t>Roth IRA ctrb</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>basis</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>yod</t>
+  </si>
+  <si>
+    <t>commission</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>amount</t>
   </si>
 </sst>
 </file>
@@ -73,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +116,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,10 +146,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,24 +473,24 @@
       <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -480,7 +519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -493,7 +532,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -506,7 +545,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -519,7 +558,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2023</v>
       </c>
@@ -532,7 +571,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2024</v>
       </c>
@@ -545,7 +584,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2025</v>
       </c>
@@ -562,7 +601,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2026</v>
       </c>
@@ -575,7 +614,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2027</v>
       </c>
@@ -588,7 +627,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2028</v>
       </c>
@@ -601,7 +640,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2029</v>
       </c>
@@ -614,7 +653,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2030</v>
       </c>
@@ -627,7 +666,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2031</v>
       </c>
@@ -640,7 +679,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2032</v>
       </c>
@@ -653,7 +692,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2033</v>
       </c>
@@ -666,7 +705,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2034</v>
       </c>
@@ -679,7 +718,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2035</v>
       </c>
@@ -692,7 +731,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2036</v>
       </c>
@@ -705,7 +744,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2037</v>
       </c>
@@ -718,7 +757,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2038</v>
       </c>
@@ -731,7 +770,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2039</v>
       </c>
@@ -744,7 +783,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2040</v>
       </c>
@@ -757,7 +796,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2041</v>
       </c>
@@ -770,7 +809,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2042</v>
       </c>
@@ -783,7 +822,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2043</v>
       </c>
@@ -796,7 +835,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2044</v>
       </c>
@@ -809,7 +848,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2045</v>
       </c>
@@ -822,7 +861,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2046</v>
       </c>
@@ -835,7 +874,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2047</v>
       </c>
@@ -848,7 +887,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2048</v>
       </c>
@@ -861,7 +900,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2049</v>
       </c>
@@ -874,7 +913,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2050</v>
       </c>
@@ -887,7 +926,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2051</v>
       </c>
@@ -900,7 +939,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2052</v>
       </c>
@@ -913,7 +952,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2053</v>
       </c>
@@ -926,7 +965,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2054</v>
       </c>
@@ -939,7 +978,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2055</v>
       </c>
@@ -954,24 +993,24 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +1039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -1013,7 +1052,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -1026,7 +1065,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -1039,7 +1078,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2023</v>
       </c>
@@ -1052,7 +1091,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2024</v>
       </c>
@@ -1065,7 +1104,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2025</v>
       </c>
@@ -1078,7 +1117,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2026</v>
       </c>
@@ -1091,7 +1130,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2027</v>
       </c>
@@ -1104,7 +1143,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2028</v>
       </c>
@@ -1117,7 +1156,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2029</v>
       </c>
@@ -1130,7 +1169,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2030</v>
       </c>
@@ -1143,7 +1182,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2031</v>
       </c>
@@ -1156,7 +1195,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2032</v>
       </c>
@@ -1169,7 +1208,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2033</v>
       </c>
@@ -1182,7 +1221,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2034</v>
       </c>
@@ -1195,7 +1234,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2035</v>
       </c>
@@ -1208,7 +1247,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2036</v>
       </c>
@@ -1221,7 +1260,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2037</v>
       </c>
@@ -1234,7 +1273,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2038</v>
       </c>
@@ -1247,7 +1286,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2039</v>
       </c>
@@ -1260,7 +1299,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2040</v>
       </c>
@@ -1273,7 +1312,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2041</v>
       </c>
@@ -1286,7 +1325,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2042</v>
       </c>
@@ -1299,7 +1338,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2043</v>
       </c>
@@ -1312,7 +1351,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2044</v>
       </c>
@@ -1325,7 +1364,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2045</v>
       </c>
@@ -1338,7 +1377,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2046</v>
       </c>
@@ -1351,7 +1390,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2047</v>
       </c>
@@ -1364,7 +1403,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2048</v>
       </c>
@@ -1377,7 +1416,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2049</v>
       </c>
@@ -1390,7 +1429,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2050</v>
       </c>
@@ -1403,7 +1442,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2051</v>
       </c>
@@ -1416,7 +1455,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2052</v>
       </c>
@@ -1429,7 +1468,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2053</v>
       </c>
@@ -1442,7 +1481,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2054</v>
       </c>
@@ -1455,7 +1494,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2055</v>
       </c>
@@ -1468,7 +1507,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2056</v>
       </c>
@@ -1481,14 +1520,87 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2057</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2058</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B21F322-C874-4527-BDE8-92BF368BACC7}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE59C6C5-4877-46A4-A4CA-95BA9238C8B2}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
